--- a/Excel Files/Scenario 13/TC030/13.0 - TC30 - Create Global Parts.xlsx
+++ b/Excel Files/Scenario 13/TC030/13.0 - TC30 - Create Global Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\TC030\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC030\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E6764A-3B22-4B63-A828-7B571EDE5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C65BD5-A25D-4C0C-B0E4-FCFDF57E2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Parts" sheetId="6" r:id="rId1"/>
@@ -277,10 +277,10 @@
     <t>Remarks 5-TB</t>
   </si>
   <si>
-    <t>TB8scenario1320230614011</t>
+    <t>TBBscenario1320230614011</t>
   </si>
   <si>
-    <t>TB8scenario1320230614012</t>
+    <t>TBBscenario1320230614012</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +417,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -641,8 +647,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,6 +676,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -6475,6 +6484,7 @@
       <sheetName val="JOB一覧힍"/>
       <sheetName val="動力源"/>
       <sheetName val=": ណ"/>
+      <sheetName val="改訂ԯ"/>
       <sheetName val="加入者ｽﾃｰﾀ_x0002__x0000__x0000__x0000_+_x0000_⽘_x0015__x0000__x0000_饦"/>
       <sheetName val="_x0000_:_x0013__x0000_0é0°_x0000__x0000__x0000__x0000_ ReQ_x0005_"/>
       <sheetName val=":”_x0013__x0000_0é0°_x0000_ ReQ_x0005_"/>
@@ -6483,7 +6493,6 @@
       <sheetName val="加入者ｽﾃｰﾀ_x0002__x0000__x0000__x0000_+_x0000___x0015__x0000__x0000__"/>
       <sheetName val=":”_x0013__x0000_0_0°_x0000_ ReQ_x0005_\"/>
       <sheetName val="_x0000_:”_x0013__x0000_0é0°_x0000__x0000__x0000__x0000_ ReQ_x0005_€"/>
-      <sheetName val="改訂ԯ"/>
       <sheetName val="33519_x0001__x0000_.5.5)"/>
       <sheetName val="df砯¬_x0000__x0000_"/>
       <sheetName val="変更管理シ0_x0000_"/>
@@ -12406,14 +12415,14 @@
       <sheetData sheetId="5763" refreshError="1"/>
       <sheetData sheetId="5764" refreshError="1"/>
       <sheetData sheetId="5765"/>
-      <sheetData sheetId="5766" refreshError="1"/>
+      <sheetData sheetId="5766"/>
       <sheetData sheetId="5767" refreshError="1"/>
       <sheetData sheetId="5768" refreshError="1"/>
       <sheetData sheetId="5769" refreshError="1"/>
       <sheetData sheetId="5770" refreshError="1"/>
       <sheetData sheetId="5771" refreshError="1"/>
       <sheetData sheetId="5772" refreshError="1"/>
-      <sheetData sheetId="5773"/>
+      <sheetData sheetId="5773" refreshError="1"/>
       <sheetData sheetId="5774"/>
       <sheetData sheetId="5775" refreshError="1"/>
       <sheetData sheetId="5776" refreshError="1"/>
@@ -12864,7 +12873,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -13126,9 +13135,9 @@
       <c r="D8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="26" t="str">
+      <c r="E8" s="36" t="str">
         <f>C8</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TBBscenario1320230614011</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>30</v>
@@ -13178,9 +13187,9 @@
       <c r="D9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="26" t="str">
+      <c r="E9" s="36" t="str">
         <f>C9</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TBBscenario1320230614012</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>30</v>
@@ -13649,15 +13658,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -13795,15 +13795,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7823BE62-853A-43C2-AA61-D99F8051F6E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68967302-7A87-4A8B-8703-450F68808976}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13819,4 +13820,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7823BE62-853A-43C2-AA61-D99F8051F6E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC030/13.0 - TC30 - Create Global Parts.xlsx
+++ b/Excel Files/Scenario 13/TC030/13.0 - TC30 - Create Global Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC030\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C65BD5-A25D-4C0C-B0E4-FCFDF57E2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9645451E-A849-45A1-8127-97ED149B9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Parts" sheetId="6" r:id="rId1"/>
@@ -277,10 +277,10 @@
     <t>Remarks 5-TB</t>
   </si>
   <si>
-    <t>TBBscenario1320230614011</t>
+    <t>TS1scenario1320230614011</t>
   </si>
   <si>
-    <t>TBBscenario1320230614012</t>
+    <t>TS1scenario1320230614012</t>
   </si>
 </sst>
 </file>
@@ -650,6 +650,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,9 +680,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="IBM(401K)" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -690,8 +690,8 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_OrionExcelDownloadForm" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="常规 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="標準_OrionExcelDownloadForm" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="㼿㼿㼿㼿㼿 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
@@ -12873,7 +12873,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -12955,27 +12955,27 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="10" t="s">
@@ -13031,10 +13031,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="54.9" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
@@ -13082,8 +13082,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="13.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="15">
         <v>36</v>
       </c>
@@ -13135,9 +13135,9 @@
       <c r="D8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="36" t="str">
+      <c r="E8" s="27" t="str">
         <f>C8</f>
-        <v>TBBscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>30</v>
@@ -13187,9 +13187,9 @@
       <c r="D9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="36" t="str">
+      <c r="E9" s="27" t="str">
         <f>C9</f>
-        <v>TBBscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>30</v>
@@ -13658,6 +13658,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -13795,16 +13804,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7823BE62-853A-43C2-AA61-D99F8051F6E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68967302-7A87-4A8B-8703-450F68808976}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13820,12 +13828,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7823BE62-853A-43C2-AA61-D99F8051F6E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC030/13.0 - TC30 - Create Global Parts.xlsx
+++ b/Excel Files/Scenario 13/TC030/13.0 - TC30 - Create Global Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC030\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9645451E-A849-45A1-8127-97ED149B9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16108189-4A9B-4CE8-9802-537D9C47F69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,10 +277,10 @@
     <t>Remarks 5-TB</t>
   </si>
   <si>
-    <t>TS1scenario1320230614011</t>
+    <t>TS2scenario1320230614011</t>
   </si>
   <si>
-    <t>TS1scenario1320230614012</t>
+    <t>TS2scenario1320230614012</t>
   </si>
 </sst>
 </file>
@@ -12873,7 +12873,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -13137,7 +13137,7 @@
       </c>
       <c r="E8" s="27" t="str">
         <f>C8</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>30</v>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="E9" s="27" t="str">
         <f>C9</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>30</v>
@@ -13658,15 +13658,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -13804,15 +13795,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7823BE62-853A-43C2-AA61-D99F8051F6E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68967302-7A87-4A8B-8703-450F68808976}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13828,4 +13820,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7823BE62-853A-43C2-AA61-D99F8051F6E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC030/13.0 - TC30 - Create Global Parts.xlsx
+++ b/Excel Files/Scenario 13/TC030/13.0 - TC30 - Create Global Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC030\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16108189-4A9B-4CE8-9802-537D9C47F69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEED23E-EDD9-47C5-822C-479AFCCEA73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Parts" sheetId="6" r:id="rId1"/>
@@ -277,10 +277,10 @@
     <t>Remarks 5-TB</t>
   </si>
   <si>
-    <t>TS2scenario1320230614011</t>
+    <t>TS6scenario1320230614011</t>
   </si>
   <si>
-    <t>TS2scenario1320230614012</t>
+    <t>TS6scenario1320230614012</t>
   </si>
 </sst>
 </file>
@@ -12873,7 +12873,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -13137,7 +13137,7 @@
       </c>
       <c r="E8" s="27" t="str">
         <f>C8</f>
-        <v>TS2scenario1320230614011</v>
+        <v>TS6scenario1320230614011</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>30</v>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="E9" s="27" t="str">
         <f>C9</f>
-        <v>TS2scenario1320230614012</v>
+        <v>TS6scenario1320230614012</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>30</v>
